--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3996.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3996.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Kane W Richardson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3460</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>25/08/2014</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3659</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>27/08/2014</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3663</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>02/09/2014</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3669</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3677</t>
+          <t>3677</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>10/10/2014</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3679</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3681</t>
+          <t>3681</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -840,7 +901,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>19/11/2014</t>
@@ -848,7 +908,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3697</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -888,7 +948,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>15/01/2016</t>
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -936,7 +995,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>17/01/2016</t>
@@ -944,7 +1002,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -984,7 +1042,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>20/01/2016</t>
@@ -992,7 +1049,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1044,7 +1101,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1096,7 +1153,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1136,7 +1193,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>24/09/2017</t>
@@ -1144,7 +1200,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1184,7 +1240,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>28/09/2017</t>
@@ -1192,7 +1247,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1244,7 +1299,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1296,7 +1351,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1348,7 +1403,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1388,7 +1443,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>29/03/2019</t>
@@ -1396,7 +1450,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1448,7 +1502,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1540,7 +1594,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>15/06/2019</t>
@@ -1548,7 +1601,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1588,7 +1641,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>14/01/2020</t>
@@ -1596,7 +1648,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1648,7 +1700,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1700,7 +1752,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1739,7 +1791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1761,7 +1813,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1798,7 +1850,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3460</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1835,7 +1887,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3659</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1872,7 +1924,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3663</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1909,7 +1961,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3669</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1946,7 +1998,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3677</t>
+          <t>3677</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1983,7 +2035,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3679</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2020,7 +2072,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3681</t>
+          <t>3681</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2057,7 +2109,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3697</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2094,7 +2146,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2131,7 +2183,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2168,7 +2220,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2205,7 +2257,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3884</t>
+          <t>3884</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2242,7 +2294,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2279,7 +2331,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2316,7 +2368,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2353,7 +2405,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2390,7 +2442,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2427,7 +2479,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2464,7 +2516,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2501,7 +2553,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2538,7 +2590,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4319</t>
+          <t>4319</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2575,7 +2627,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4322</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2612,7 +2664,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4398</t>
+          <t>4398</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2649,7 +2701,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4399</t>
+          <t>4399</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2686,7 +2738,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4421</t>
+          <t>4421</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2714,6 +2766,469 @@
           <t>1/63</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3679</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3681</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3.90%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3697</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.47%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4167</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6.83%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.53%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.89%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3996.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3996.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2827,9 +2828,6 @@
       <c r="B2" t="n">
         <v>9</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2875,9 +2873,6 @@
       <c r="B4" t="n">
         <v>9</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2890,15 +2885,396 @@
           <t>3875</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.47%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4167</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6.83%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.53%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>11</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.89%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3679</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3681</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3697</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2906,15 +3282,14 @@
           <t>3876</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2926,13 +3301,6 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2942,13 +3310,6 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2956,15 +3317,14 @@
           <t>4069</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>11</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2974,13 +3334,14 @@
           <t>4071</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2990,29 +3351,8 @@
           <t>4074</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.47%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3020,13 +3360,14 @@
           <t>4166</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3036,29 +3377,8 @@
           <t>4167</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.83%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3066,13 +3386,14 @@
           <t>4170</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -3082,29 +3403,8 @@
           <t>4276</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.53%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3112,27 +3412,14 @@
           <t>4277</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>11</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.33%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3142,15 +3429,14 @@
           <t>4319</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3160,15 +3446,14 @@
           <t>4322</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -3178,27 +3463,14 @@
           <t>4398</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>10</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.89%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3208,13 +3480,14 @@
           <t>4399</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -3226,9 +3499,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3996.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3996.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2828,6 +2827,9 @@
       <c r="B2" t="n">
         <v>9</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2873,6 +2875,9 @@
       <c r="B4" t="n">
         <v>9</v>
       </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2885,6 +2890,10 @@
           <t>3875</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2900,6 +2909,9 @@
       <c r="B6" t="n">
         <v>10</v>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2912,6 +2924,10 @@
           <t>3877</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2924,6 +2940,10 @@
           <t>3884</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2939,6 +2959,9 @@
       <c r="B9" t="n">
         <v>11</v>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2951,6 +2974,10 @@
           <t>4071</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2993,6 +3020,10 @@
           <t>4166</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3035,6 +3066,10 @@
           <t>4170</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3110,6 +3145,9 @@
       <c r="B17" t="n">
         <v>11</v>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3125,6 +3163,9 @@
       <c r="B18" t="n">
         <v>10</v>
       </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3167,6 +3208,10 @@
           <t>4399</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3179,326 +3224,11 @@
           <t>4421</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3679</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3681</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3697</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3875</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3876</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3877</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3884</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4069</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4071</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4074</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4166</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4167</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4170</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4276</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4277</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4322</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4398</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4399</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4421</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3996.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3996.xlsx
@@ -2778,7 +2778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2821,14 +2821,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>3460</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>9</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
@@ -2839,27 +2847,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3681</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3.90%</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2869,11 +2865,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3697</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -2887,10 +2883,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3875</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>3669</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -2903,12 +2901,10 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3876</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
+          <t>3677</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -2921,10 +2917,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3877</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>3679</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -2937,13 +2935,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3884</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+          <t>3681</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3.90%</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2953,11 +2965,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4069</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -2971,7 +2983,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4071</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -2987,27 +2999,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4074</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.47%</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3017,7 +3017,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4166</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -3033,27 +3033,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4167</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.83%</t>
-        </is>
-      </c>
+          <t>3884</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3063,10 +3049,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4170</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -3079,27 +3067,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4276</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.53%</t>
-        </is>
-      </c>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3109,11 +3083,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4277</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -3127,7 +3101,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>0.47%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3139,12 +3113,10 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4319</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>11</v>
-      </c>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -3157,15 +3129,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4322</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6.83%</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3175,27 +3159,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4398</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.89%</t>
-        </is>
-      </c>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3205,13 +3175,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4399</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.53%</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3221,14 +3205,126 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.33%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4322</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4398</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7.89%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4399</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>4421</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
